--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_LudlowVillage_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_LudlowVillage_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7A780-B995-41C5-8869-691BFFB0DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE24D168-2211-CD40-8362-949EF1E00F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="620" yWindow="600" windowWidth="23440" windowHeight="19020" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="118">
   <si>
     <t>County</t>
   </si>
@@ -362,15 +362,6 @@
   </si>
   <si>
     <t>Tin Skoric</t>
-  </si>
-  <si>
-    <t>100 (Village)</t>
-  </si>
-  <si>
-    <t>98 (Town; On a different excel sheet)</t>
-  </si>
-  <si>
-    <t>Village of Ludlow</t>
   </si>
   <si>
     <t>V-R</t>
@@ -495,294 +486,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -1466,99 +1170,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1279,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1296,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1609,7 +1313,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1330,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1643,7 +1347,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +1364,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1381,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1398,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1415,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1432,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1449,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1466,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1483,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1796,24 +1500,24 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1528,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +1597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +1662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +1683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2002,7 +1706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +1729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2048,7 +1752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +1769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +1786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -2093,7 +1797,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
@@ -2110,7 +1814,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -2127,7 +1831,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -2150,7 +1854,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -2173,7 +1877,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
@@ -2196,7 +1900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>26</v>
       </c>
@@ -2219,7 +1923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
@@ -2242,7 +1946,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>28</v>
       </c>
@@ -2265,7 +1969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>29</v>
       </c>
@@ -2284,7 +1988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -2328,7 +2032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -2351,7 +2055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +2078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -2397,7 +2101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -2414,7 +2118,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2431,7 +2135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>38</v>
       </c>
@@ -2442,7 +2146,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>41</v>
       </c>
@@ -2459,7 +2163,7 @@
       </c>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>42</v>
       </c>
@@ -2476,7 +2180,7 @@
       </c>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>36</v>
       </c>
@@ -2497,7 +2201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>91</v>
       </c>
@@ -2520,7 +2224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>25</v>
       </c>
@@ -2543,7 +2247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
@@ -2612,7 +2316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>29</v>
       </c>
@@ -2631,7 +2335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>30</v>
       </c>
@@ -2652,7 +2356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>44</v>
       </c>
@@ -2675,7 +2379,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>45</v>
       </c>
@@ -2698,7 +2402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2419,7 @@
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>47</v>
       </c>
@@ -2732,7 +2436,7 @@
       </c>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>33</v>
       </c>
@@ -2778,7 +2482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>34</v>
       </c>
@@ -2795,7 +2499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>43</v>
       </c>
@@ -2812,7 +2516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>48</v>
       </c>
@@ -2829,7 +2533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>39</v>
       </c>
@@ -2846,7 +2550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +2567,7 @@
       </c>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>42</v>
       </c>
@@ -2880,7 +2584,7 @@
       </c>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>36</v>
       </c>
@@ -2901,7 +2605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>91</v>
       </c>
@@ -2924,7 +2628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>25</v>
       </c>
@@ -2947,7 +2651,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
@@ -2970,7 +2674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +2697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>28</v>
       </c>
@@ -3016,7 +2720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>29</v>
       </c>
@@ -3035,7 +2739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>30</v>
       </c>
@@ -3056,7 +2760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>44</v>
       </c>
@@ -3079,7 +2783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>45</v>
       </c>
@@ -3102,7 +2806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>46</v>
       </c>
@@ -3119,7 +2823,7 @@
       </c>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -3136,7 +2840,7 @@
       </c>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>32</v>
       </c>
@@ -3159,7 +2863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>33</v>
       </c>
@@ -3182,7 +2886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>34</v>
       </c>
@@ -3199,7 +2903,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>43</v>
       </c>
@@ -3216,7 +2920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>48</v>
       </c>
@@ -3233,7 +2937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>49</v>
       </c>
@@ -3250,7 +2954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>40</v>
       </c>
@@ -3267,7 +2971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
@@ -3284,7 +2988,7 @@
       </c>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>42</v>
       </c>
@@ -3301,7 +3005,7 @@
       </c>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>36</v>
       </c>
@@ -3322,7 +3026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>91</v>
       </c>
@@ -3345,7 +3049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>25</v>
       </c>
@@ -3368,7 +3072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>26</v>
       </c>
@@ -3391,7 +3095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>27</v>
       </c>
@@ -3414,7 +3118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>28</v>
       </c>
@@ -3437,7 +3141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>29</v>
       </c>
@@ -3456,7 +3160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>30</v>
       </c>
@@ -3477,7 +3181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>44</v>
       </c>
@@ -3500,7 +3204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>45</v>
       </c>
@@ -3523,7 +3227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>46</v>
       </c>
@@ -3540,7 +3244,7 @@
       </c>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>47</v>
       </c>
@@ -3557,7 +3261,7 @@
       </c>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>32</v>
       </c>
@@ -3580,7 +3284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>33</v>
       </c>
@@ -3603,7 +3307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>34</v>
       </c>
@@ -3620,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>43</v>
       </c>
@@ -3637,7 +3341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>48</v>
       </c>
@@ -3654,7 +3358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>49</v>
       </c>
@@ -3671,7 +3375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>50</v>
       </c>
@@ -3688,7 +3392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>51</v>
       </c>
@@ -3699,7 +3403,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>42</v>
       </c>
@@ -3710,7 +3414,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>36</v>
       </c>
@@ -3727,7 +3431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>91</v>
       </c>
@@ -3744,7 +3448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>44</v>
       </c>
@@ -3761,7 +3465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>45</v>
       </c>
@@ -3778,7 +3482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>43</v>
       </c>
@@ -3795,7 +3499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>48</v>
       </c>
@@ -3812,7 +3516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>49</v>
       </c>
@@ -3829,7 +3533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>52</v>
       </c>
@@ -3846,7 +3550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>53</v>
       </c>
@@ -3861,7 +3565,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>54</v>
       </c>
@@ -3876,7 +3580,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3595,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
@@ -3906,7 +3610,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>36</v>
       </c>
@@ -3923,7 +3627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>31</v>
       </c>
@@ -3940,7 +3644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>56</v>
       </c>
@@ -3955,7 +3659,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>57</v>
       </c>
@@ -3976,7 +3680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>58</v>
       </c>
@@ -3993,7 +3697,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>48</v>
       </c>
@@ -4014,7 +3718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>59</v>
       </c>
@@ -4031,7 +3735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>60</v>
       </c>
@@ -4046,7 +3750,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>36</v>
       </c>
@@ -4067,7 +3771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>91</v>
       </c>
@@ -4084,7 +3788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>61</v>
       </c>
@@ -4095,7 +3799,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>62</v>
       </c>
@@ -4112,7 +3816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>63</v>
       </c>
@@ -4129,7 +3833,7 @@
       </c>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>64</v>
       </c>
@@ -4140,7 +3844,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>65</v>
       </c>
@@ -4157,7 +3861,7 @@
       </c>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>66</v>
       </c>
@@ -4174,7 +3878,7 @@
       </c>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>67</v>
       </c>
@@ -4191,7 +3895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>95</v>
       </c>
@@ -4214,394 +3918,269 @@
   <mergeCells count="1">
     <mergeCell ref="B113:G113"/>
   </mergeCells>
-  <conditionalFormatting sqref="B34:B35 D34:D35 F34:F35 B36:C36 G36:G37 B45:G45 C37:F37 E36">
-    <cfRule type="expression" dxfId="93" priority="271">
+  <conditionalFormatting sqref="B34:B35 D34:D35 F34:F35 B36:C36 E36 G36:G37 C37:F37 B45:G45">
+    <cfRule type="expression" dxfId="52" priority="271">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52 F51:F54 B53:E53 G53:G54 B63:B64 D63:D64 B69:E69 G65:G69 F63:F69 C54 E54">
-    <cfRule type="expression" dxfId="92" priority="270" stopIfTrue="1">
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="51" priority="46" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B52">
+    <cfRule type="expression" dxfId="50" priority="39">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:B72">
+    <cfRule type="expression" dxfId="49" priority="33">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:B84">
+    <cfRule type="expression" dxfId="48" priority="37" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B93">
+    <cfRule type="expression" dxfId="47" priority="26">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B105">
+    <cfRule type="expression" dxfId="46" priority="30" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121">
+    <cfRule type="expression" dxfId="45" priority="267" stopIfTrue="1">
+      <formula>OR(B$17="", B$17="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123:B132 D123:D132 F123:F132">
+    <cfRule type="expression" dxfId="44" priority="266">
+      <formula>OR(B$16="", B$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137">
+    <cfRule type="expression" dxfId="43" priority="265" stopIfTrue="1">
+      <formula>OR(B$18="Prohibited", B$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:C54">
+    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:C74">
+    <cfRule type="expression" dxfId="40" priority="36" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94:C95">
+    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:E68">
+    <cfRule type="expression" dxfId="38" priority="12" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85:E88">
+    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:E109">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:G32">
+    <cfRule type="expression" dxfId="35" priority="272" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:G44">
+    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:G49">
+    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:G61">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:G62">
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:G81">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+      <formula>OR(B$11="", B$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:G82">
+    <cfRule type="expression" dxfId="29" priority="9">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B90:G90">
-    <cfRule type="expression" dxfId="91" priority="269">
+    <cfRule type="expression" dxfId="28" priority="269">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:G32">
-    <cfRule type="expression" dxfId="89" priority="272" stopIfTrue="1">
+  <conditionalFormatting sqref="B96:G102">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B103:G103">
+    <cfRule type="expression" dxfId="26" priority="3">
+      <formula>OR(B$12="", B$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111:G111">
+    <cfRule type="expression" dxfId="25" priority="6">
+      <formula>OR(B$14="", B$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="85" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="255" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="84" priority="256">
+    <cfRule type="expression" dxfId="23" priority="256">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="83" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="253" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="82" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="250" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="81" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="248" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+      <formula>OR(D$11="", D$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D52 F51:F54 B53:E53 G53:G54 E54 B63:B64 D63:D64 F63:F69 G65:G69 B69:E69">
+    <cfRule type="expression" dxfId="18" priority="270" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D72 D73:E73 E74 D83:D84 B89:E89">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D93 D94:E94 E95 D104:D105 B110:E110">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>OR(B$13="", B$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>OR(D$12="", D$12="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="77" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="90" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="76" priority="91">
+    <cfRule type="expression" dxfId="11" priority="91">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E128">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="73" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="87" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="7" priority="62" stopIfTrue="1">
+      <formula>OR(F$11="", F$11="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F74 G73:G74 F83:F89 G85:G89">
+    <cfRule type="expression" dxfId="6" priority="53" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F95 G94:G95 F104:F110 G106:G110">
+    <cfRule type="expression" dxfId="5" priority="49" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="69" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="82" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="68" priority="83">
+    <cfRule type="expression" dxfId="3" priority="83">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="67" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="81" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="66" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="80" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G136">
-    <cfRule type="expression" dxfId="65" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="79" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114:B121 D114:D121 F114:F121">
-    <cfRule type="expression" dxfId="64" priority="267" stopIfTrue="1">
-      <formula>OR(B$17="", B$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:B132 F123:F132 D123:D132">
-    <cfRule type="expression" dxfId="63" priority="266">
-      <formula>OR(B$16="", B$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:B137 D134:D137 F134:F137">
-    <cfRule type="expression" dxfId="62" priority="265" stopIfTrue="1">
-      <formula>OR(B$18="Prohibited", B$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G44">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G49">
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:G62">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55:G61">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F74 G73:G74 G85:G89 F83:F89">
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F82:G82">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G81">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>OR(F$14="", F$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F95 G94:G95 G106:G110 F104:F110">
-    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>OR(F$12="", F$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G102">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
-      <formula>OR(F$11="", F$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144">
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C44">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C47 B49:C49 B48">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:C61">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B52">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:C66 B68:C68 B67">
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73:C73 B83:B84 B89:C89 C74">
-    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:C82">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:C81">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B72">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85:C86 B88:C88 B87">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B111:C111">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>OR(B$14="", B$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94:C94 B104:B105 B110:C110 C95">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>OR(B$13="", B$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:C103">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96:C102">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B93">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>OR(B$12="", B$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106:C107 B109:C109 B108">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>OR(B$11="", B$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>OR(C$11="", C$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>OR(C$11="", C$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>OR(C$11="", C$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>OR(C$11="", C$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:E44">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:E49">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:E62">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:E61">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:E68">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D72 D73:E73 D83:D84 D89:E89 E74">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82:E82">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:E81">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:E88">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D111:E111">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR(D$14="", D$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D93 D94:E94 D104:D105 D110:E110 E95">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>OR(D$13="", D$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:E103">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR(D$12="", D$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E102">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106:E109">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>OR(D$11="", D$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4619,12 +4198,6 @@
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B20 B16:B18 C16:C20 D16:D18 D20 G16:H20 F20 E16:E20 F16:F18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58828DE9-870F-409F-B745-5E19B80E16A7}">
-          <x14:formula1>
-            <xm:f>Sheet2!AA1:AA2</xm:f>
-          </x14:formula1>
-          <xm:sqref>I5:J6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7057CA9C-B612-4A65-A2CE-6B3FB417F5B5}">
           <x14:formula1>
@@ -4698,11 +4271,17 @@
           </x14:formula1>
           <xm:sqref>B11:L11 B12:H15</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58828DE9-870F-409F-B745-5E19B80E16A7}">
+          <x14:formula1>
+            <xm:f>Sheet2!AA1:AA2</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:J6</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA3FD794-7F1F-40F4-9E8A-0762695FF760}">
           <x14:formula1>
             <xm:f>Sheet2!B3:B4</xm:f>
           </x14:formula1>
-          <xm:sqref>C8 G8 E8</xm:sqref>
+          <xm:sqref>C8 E8 G8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5A3AAF2-55CC-49B5-8816-469EE19479E4}">
           <x14:formula1>
@@ -4718,166 +4297,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <f>Districts!B1</f>
         <v>V-R</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <f>Districts!D1</f>
         <v>R-C</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f>Districts!F1</f>
         <v>L-P</v>
       </c>
-      <c r="E11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" t="e">
-        <f>Districts!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="4">
-        <v>43472</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B13" s="4">
         <v>43473</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>42681</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{A55FAB46-C3C0-43DE-A398-3C99B78253FD}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{B82B8520-23E7-4D32-9B47-3499922692F0}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{9FB3D6E3-2A67-4428-AB8E-7A7688FD24F0}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{A55FAB46-C3C0-43DE-A398-3C99B78253FD}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{B82B8520-23E7-4D32-9B47-3499922692F0}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{9FB3D6E3-2A67-4428-AB8E-7A7688FD24F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4891,9 +4444,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4904,7 +4457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4915,7 +4468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -4923,7 +4476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -4931,12 +4484,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -4968,7 +4521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -5000,7 +4553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -5032,7 +4585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -5064,12 +4617,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
